--- a/Bin_data/Turkish/Turkish74.bin.xlsx
+++ b/Bin_data/Turkish/Turkish74.bin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Bin_data\Turkish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99085CD3-1EC3-41CB-9D82-42C336E232FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CE1D4F-8DD6-42B7-87E2-8FEF56B7D3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5930" yWindow="2070" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>RF</t>
-  </si>
-  <si>
-    <t>Mol WT</t>
   </si>
 </sst>
 </file>
@@ -391,7 +388,7 @@
   <dimension ref="A1:BG201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BF1" sqref="BF1:BG201"/>
+      <selection activeCell="BE1" sqref="BE1:BE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -565,9 +562,7 @@
       <c r="BD1" s="1">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
       <c r="BG1" s="1"/>
     </row>
@@ -740,9 +735,6 @@
       <c r="BD2">
         <v>0</v>
       </c>
-      <c r="BE2">
-        <v>1893.642292211214</v>
-      </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -913,9 +905,6 @@
       <c r="BD3">
         <v>0</v>
       </c>
-      <c r="BE3">
-        <v>1457.811164971391</v>
-      </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -1086,9 +1075,6 @@
       <c r="BD4">
         <v>0</v>
       </c>
-      <c r="BE4">
-        <v>1572.466448014354</v>
-      </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1259,9 +1245,6 @@
       <c r="BD5">
         <v>0</v>
       </c>
-      <c r="BE5">
-        <v>1264.7845601640199</v>
-      </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1432,9 +1415,6 @@
       <c r="BD6">
         <v>0</v>
       </c>
-      <c r="BE6">
-        <v>1374.4397397684261</v>
-      </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -1605,9 +1585,6 @@
       <c r="BD7">
         <v>0</v>
       </c>
-      <c r="BE7">
-        <v>1116.232425341994</v>
-      </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1778,9 +1755,6 @@
       <c r="BD8">
         <v>0</v>
       </c>
-      <c r="BE8">
-        <v>350.69893020775862</v>
-      </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1951,9 +1925,6 @@
       <c r="BD9">
         <v>0</v>
       </c>
-      <c r="BE9">
-        <v>679.61255769224431</v>
-      </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -2124,9 +2095,6 @@
       <c r="BD10">
         <v>0</v>
       </c>
-      <c r="BE10">
-        <v>159.51480063714101</v>
-      </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -2297,9 +2265,6 @@
       <c r="BD11">
         <v>0</v>
       </c>
-      <c r="BE11">
-        <v>459.07320097042032</v>
-      </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -2470,9 +2435,6 @@
       <c r="BD12">
         <v>0</v>
       </c>
-      <c r="BE12">
-        <v>296.40003337895172</v>
-      </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -2643,9 +2605,6 @@
       <c r="BD13">
         <v>0</v>
       </c>
-      <c r="BE13">
-        <v>716.59987367366045</v>
-      </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -2816,9 +2775,6 @@
       <c r="BD14">
         <v>0</v>
       </c>
-      <c r="BE14">
-        <v>279.68136767437193</v>
-      </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -2989,9 +2945,6 @@
       <c r="BD15">
         <v>0</v>
       </c>
-      <c r="BE15">
-        <v>668.99168750871888</v>
-      </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -3162,11 +3115,8 @@
       <c r="BD16">
         <v>0</v>
       </c>
-      <c r="BE16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0.08</v>
       </c>
@@ -3335,11 +3285,8 @@
       <c r="BD17">
         <v>0</v>
       </c>
-      <c r="BE17">
-        <v>376.06122031148419</v>
-      </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
@@ -3508,11 +3455,8 @@
       <c r="BD18">
         <v>0</v>
       </c>
-      <c r="BE18">
-        <v>243.0119266148609</v>
-      </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0.09</v>
       </c>
@@ -3681,11 +3625,8 @@
       <c r="BD19">
         <v>0</v>
       </c>
-      <c r="BE19">
-        <v>116.94167387027591</v>
-      </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
@@ -3854,11 +3795,8 @@
       <c r="BD20">
         <v>0</v>
       </c>
-      <c r="BE20">
-        <v>230.60602048388651</v>
-      </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>0.1</v>
       </c>
@@ -4027,11 +3965,8 @@
       <c r="BD21">
         <v>0</v>
       </c>
-      <c r="BE21">
-        <v>223.95629558479521</v>
-      </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0.105</v>
       </c>
@@ -4200,11 +4135,8 @@
       <c r="BD22">
         <v>0</v>
       </c>
-      <c r="BE22">
-        <v>218.430572488454</v>
-      </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0.11</v>
       </c>
@@ -4373,11 +4305,8 @@
       <c r="BD23">
         <v>0</v>
       </c>
-      <c r="BE23">
-        <v>318.28992157884511</v>
-      </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0.115</v>
       </c>
@@ -4546,11 +4475,8 @@
       <c r="BD24">
         <v>0</v>
       </c>
-      <c r="BE24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0.12</v>
       </c>
@@ -4719,11 +4645,8 @@
       <c r="BD25">
         <v>0</v>
       </c>
-      <c r="BE25">
-        <v>203.48626301693949</v>
-      </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0.125</v>
       </c>
@@ -4892,11 +4815,8 @@
       <c r="BD26">
         <v>0</v>
       </c>
-      <c r="BE26">
-        <v>197.52926937296269</v>
-      </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>0.13</v>
       </c>
@@ -5065,11 +4985,8 @@
       <c r="BD27">
         <v>0</v>
       </c>
-      <c r="BE27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0.13500000000000001</v>
       </c>
@@ -5238,11 +5155,8 @@
       <c r="BD28">
         <v>0</v>
       </c>
-      <c r="BE28">
-        <v>93.702931055673076</v>
-      </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0.14000000000000001</v>
       </c>
@@ -5411,11 +5325,8 @@
       <c r="BD29">
         <v>0</v>
       </c>
-      <c r="BE29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0.14499999999999999</v>
       </c>
@@ -5584,11 +5495,8 @@
       <c r="BD30">
         <v>0</v>
       </c>
-      <c r="BE30">
-        <v>269.4838428584564</v>
-      </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0.15</v>
       </c>
@@ -5757,11 +5665,8 @@
       <c r="BD31">
         <v>0</v>
       </c>
-      <c r="BE31">
-        <v>353.6527831696618</v>
-      </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0.155</v>
       </c>
@@ -5930,11 +5835,8 @@
       <c r="BD32">
         <v>0</v>
       </c>
-      <c r="BE32">
-        <v>174.44902043652499</v>
-      </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.16</v>
       </c>
@@ -6103,11 +6005,8 @@
       <c r="BD33">
         <v>0</v>
       </c>
-      <c r="BE33">
-        <v>255.1633227898958</v>
-      </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.16500000000000001</v>
       </c>
@@ -6276,11 +6175,8 @@
       <c r="BD34">
         <v>0</v>
       </c>
-      <c r="BE34">
-        <v>166.18796970939971</v>
-      </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0.17</v>
       </c>
@@ -6449,11 +6345,8 @@
       <c r="BD35">
         <v>0</v>
       </c>
-      <c r="BE35">
-        <v>244.8179688526165</v>
-      </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0.17499999999999999</v>
       </c>
@@ -6622,11 +6515,8 @@
       <c r="BD36">
         <v>5.4880980480000001E-2</v>
       </c>
-      <c r="BE36">
-        <v>402.29300582888811</v>
-      </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0.18</v>
       </c>
@@ -6795,11 +6685,8 @@
       <c r="BD37">
         <v>0</v>
       </c>
-      <c r="BE37">
-        <v>237.46655184001011</v>
-      </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0.185</v>
       </c>
@@ -6968,11 +6855,8 @@
       <c r="BD38">
         <v>0</v>
       </c>
-      <c r="BE38">
-        <v>232.64216540354701</v>
-      </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>0.19</v>
       </c>
@@ -7141,11 +7025,8 @@
       <c r="BD39">
         <v>0</v>
       </c>
-      <c r="BE39">
-        <v>304.33230256471882</v>
-      </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>0.19500000000000001</v>
       </c>
@@ -7314,11 +7195,8 @@
       <c r="BD40">
         <v>0</v>
       </c>
-      <c r="BE40">
-        <v>298.85828895621648</v>
-      </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0.2</v>
       </c>
@@ -7487,11 +7365,8 @@
       <c r="BD41">
         <v>0</v>
       </c>
-      <c r="BE41">
-        <v>146.94584329798411</v>
-      </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>0.20499999999999999</v>
       </c>
@@ -7660,11 +7535,8 @@
       <c r="BD42">
         <v>0</v>
       </c>
-      <c r="BE42">
-        <v>289.55215835710311</v>
-      </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>0.21</v>
       </c>
@@ -7833,11 +7705,8 @@
       <c r="BD43">
         <v>0</v>
       </c>
-      <c r="BE43">
-        <v>355.11072903569482</v>
-      </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>0.215</v>
       </c>
@@ -8006,11 +7875,8 @@
       <c r="BD44">
         <v>0</v>
       </c>
-      <c r="BE44">
-        <v>209.56238350099579</v>
-      </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>0.22</v>
       </c>
@@ -8179,11 +8045,8 @@
       <c r="BD45">
         <v>0</v>
       </c>
-      <c r="BE45">
-        <v>274.74337252882373</v>
-      </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>0.22500000000000001</v>
       </c>
@@ -8352,11 +8215,8 @@
       <c r="BD46">
         <v>0</v>
       </c>
-      <c r="BE46">
-        <v>270.92935560026888</v>
-      </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>0.23</v>
       </c>
@@ -8525,11 +8385,8 @@
       <c r="BD47">
         <v>0</v>
       </c>
-      <c r="BE47">
-        <v>132.70013465711099</v>
-      </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>0.23499999999999999</v>
       </c>
@@ -8698,11 +8555,8 @@
       <c r="BD48">
         <v>0</v>
       </c>
-      <c r="BE48">
-        <v>197.1995543740353</v>
-      </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>0.24</v>
       </c>
@@ -8871,11 +8725,8 @@
       <c r="BD49">
         <v>0</v>
       </c>
-      <c r="BE49">
-        <v>388.04324424531433</v>
-      </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>0.245</v>
       </c>
@@ -9044,11 +8895,8 @@
       <c r="BD50">
         <v>0</v>
       </c>
-      <c r="BE50">
-        <v>127.2502580881265</v>
-      </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>0.25</v>
       </c>
@@ -9217,11 +9065,8 @@
       <c r="BD51">
         <v>0</v>
       </c>
-      <c r="BE51">
-        <v>125.3763111749516</v>
-      </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>0.255</v>
       </c>
@@ -9390,11 +9235,8 @@
       <c r="BD52">
         <v>0</v>
       </c>
-      <c r="BE52">
-        <v>247.32640358146361</v>
-      </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>0.26</v>
       </c>
@@ -9563,11 +9405,8 @@
       <c r="BD53">
         <v>0</v>
       </c>
-      <c r="BE53">
-        <v>244.20941797778289</v>
-      </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>0.26500000000000001</v>
       </c>
@@ -9736,11 +9575,8 @@
       <c r="BD54">
         <v>0</v>
       </c>
-      <c r="BE54">
-        <v>180.12726639501099</v>
-      </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>0.27</v>
       </c>
@@ -9909,11 +9745,8 @@
       <c r="BD55">
         <v>0</v>
       </c>
-      <c r="BE55">
-        <v>296.38690804694647</v>
-      </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>0.27500000000000002</v>
       </c>
@@ -10082,11 +9915,8 @@
       <c r="BD56">
         <v>0</v>
       </c>
-      <c r="BE56">
-        <v>175.14639342462161</v>
-      </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>0.28000000000000003</v>
       </c>
@@ -10255,11 +10085,8 @@
       <c r="BD57">
         <v>0</v>
       </c>
-      <c r="BE57">
-        <v>230.76280508023331</v>
-      </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>0.28499999999999998</v>
       </c>
@@ -10428,11 +10255,8 @@
       <c r="BD58">
         <v>0</v>
       </c>
-      <c r="BE58">
-        <v>170.80260931353959</v>
-      </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>0.28999999999999998</v>
       </c>
@@ -10601,11 +10425,8 @@
       <c r="BD59">
         <v>0</v>
       </c>
-      <c r="BE59">
-        <v>337.59943728889039</v>
-      </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>0.29499999999999998</v>
       </c>
@@ -10774,11 +10595,8 @@
       <c r="BD60">
         <v>0</v>
       </c>
-      <c r="BE60">
-        <v>388.46479101720439</v>
-      </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>0.3</v>
       </c>
@@ -10947,11 +10765,8 @@
       <c r="BD61">
         <v>0</v>
       </c>
-      <c r="BE61">
-        <v>218.63541237975321</v>
-      </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>0.30499999999999999</v>
       </c>
@@ -11120,11 +10935,8 @@
       <c r="BD62">
         <v>0</v>
       </c>
-      <c r="BE62">
-        <v>323.71378159784638</v>
-      </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>0.31</v>
       </c>
@@ -11293,11 +11105,8 @@
       <c r="BD63">
         <v>0</v>
       </c>
-      <c r="BE63">
-        <v>266.69706723910309</v>
-      </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>0.315</v>
       </c>
@@ -11466,11 +11275,8 @@
       <c r="BD64">
         <v>0</v>
       </c>
-      <c r="BE64">
-        <v>157.80600169831871</v>
-      </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>0.32</v>
       </c>
@@ -11639,11 +11445,8 @@
       <c r="BD65">
         <v>0</v>
       </c>
-      <c r="BE65">
-        <v>207.7187552819627</v>
-      </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>0.32500000000000001</v>
       </c>
@@ -11812,11 +11615,8 @@
       <c r="BD66">
         <v>0</v>
       </c>
-      <c r="BE66">
-        <v>0</v>
-      </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>0.33</v>
       </c>
@@ -11985,11 +11785,8 @@
       <c r="BD67">
         <v>0</v>
       </c>
-      <c r="BE67">
-        <v>50.929142089259223</v>
-      </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>0.33500000000000002</v>
       </c>
@@ -12158,11 +11955,8 @@
       <c r="BD68">
         <v>0</v>
       </c>
-      <c r="BE68">
-        <v>50.00158815798742</v>
-      </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>0.34</v>
       </c>
@@ -12331,11 +12125,8 @@
       <c r="BD69">
         <v>0</v>
       </c>
-      <c r="BE69">
-        <v>0</v>
-      </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>0.34499999999999997</v>
       </c>
@@ -12504,11 +12295,8 @@
       <c r="BD70">
         <v>0</v>
       </c>
-      <c r="BE70">
-        <v>245.0085769660916</v>
-      </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>0.35</v>
       </c>
@@ -12677,11 +12465,8 @@
       <c r="BD71">
         <v>0</v>
       </c>
-      <c r="BE71">
-        <v>96.398980867947998</v>
-      </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>0.35499999999999998</v>
       </c>
@@ -12850,11 +12635,8 @@
       <c r="BD72">
         <v>0</v>
       </c>
-      <c r="BE72">
-        <v>48.022075175936138</v>
-      </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>0.36</v>
       </c>
@@ -13023,11 +12805,8 @@
       <c r="BD73">
         <v>0</v>
       </c>
-      <c r="BE73">
-        <v>94.786307994345762</v>
-      </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>0.36499999999999999</v>
       </c>
@@ -13196,11 +12975,8 @@
       <c r="BD74">
         <v>0</v>
       </c>
-      <c r="BE74">
-        <v>233.96254142214971</v>
-      </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>0.37</v>
       </c>
@@ -13369,11 +13145,8 @@
       <c r="BD75">
         <v>0</v>
       </c>
-      <c r="BE75">
-        <v>184.77937527093269</v>
-      </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>0.375</v>
       </c>
@@ -13542,11 +13315,8 @@
       <c r="BD76">
         <v>0</v>
       </c>
-      <c r="BE76">
-        <v>182.49337623589301</v>
-      </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>0.38</v>
       </c>
@@ -13715,11 +13485,8 @@
       <c r="BD77">
         <v>0</v>
       </c>
-      <c r="BE77">
-        <v>316.00414249120331</v>
-      </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>0.38500000000000001</v>
       </c>
@@ -13888,11 +13655,8 @@
       <c r="BD78">
         <v>0</v>
       </c>
-      <c r="BE78">
-        <v>178.62804216587051</v>
-      </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>0.39</v>
       </c>
@@ -14061,11 +13825,8 @@
       <c r="BD79">
         <v>0</v>
       </c>
-      <c r="BE79">
-        <v>132.75120776687089</v>
-      </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>0.39500000000000002</v>
       </c>
@@ -14234,11 +13995,8 @@
       <c r="BD80">
         <v>0</v>
       </c>
-      <c r="BE80">
-        <v>0</v>
-      </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>0.4</v>
       </c>
@@ -14407,11 +14165,8 @@
       <c r="BD81">
         <v>0</v>
       </c>
-      <c r="BE81">
-        <v>129.92654933309331</v>
-      </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>0.40500000000000003</v>
       </c>
@@ -14580,11 +14335,8 @@
       <c r="BD82">
         <v>0</v>
       </c>
-      <c r="BE82">
-        <v>128.17666422440189</v>
-      </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>0.41</v>
       </c>
@@ -14753,11 +14505,8 @@
       <c r="BD83">
         <v>0</v>
       </c>
-      <c r="BE83">
-        <v>127.14697825213629</v>
-      </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>0.41499999999999998</v>
       </c>
@@ -14926,11 +14675,8 @@
       <c r="BD84">
         <v>0</v>
       </c>
-      <c r="BE84">
-        <v>125.7405623249208</v>
-      </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>0.42</v>
       </c>
@@ -15099,11 +14845,8 @@
       <c r="BD85">
         <v>0</v>
       </c>
-      <c r="BE85">
-        <v>124.41392796072201</v>
-      </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>0.42499999999999999</v>
       </c>
@@ -15272,11 +15015,8 @@
       <c r="BD86">
         <v>0</v>
       </c>
-      <c r="BE86">
-        <v>82.164250738763087</v>
-      </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>0.43</v>
       </c>
@@ -15445,11 +15185,8 @@
       <c r="BD87">
         <v>0</v>
       </c>
-      <c r="BE87">
-        <v>121.7799820073982</v>
-      </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>0.435</v>
       </c>
@@ -15618,11 +15355,8 @@
       <c r="BD88">
         <v>0</v>
       </c>
-      <c r="BE88">
-        <v>120.4198609635739</v>
-      </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>0.44</v>
       </c>
@@ -15791,11 +15525,8 @@
       <c r="BD89">
         <v>0</v>
       </c>
-      <c r="BE89">
-        <v>119.39123563024491</v>
-      </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>0.44500000000000001</v>
       </c>
@@ -15964,11 +15695,8 @@
       <c r="BD90">
         <v>0</v>
       </c>
-      <c r="BE90">
-        <v>0</v>
-      </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>0.45</v>
       </c>
@@ -16137,11 +15865,8 @@
       <c r="BD91">
         <v>0</v>
       </c>
-      <c r="BE91">
-        <v>39.142219011910584</v>
-      </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>0.45500000000000002</v>
       </c>
@@ -16310,11 +16035,8 @@
       <c r="BD92">
         <v>0</v>
       </c>
-      <c r="BE92">
-        <v>77.20503251275116</v>
-      </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>0.46</v>
       </c>
@@ -16483,11 +16205,8 @@
       <c r="BD93">
         <v>0</v>
       </c>
-      <c r="BE93">
-        <v>114.844012540501</v>
-      </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>0.46500000000000002</v>
       </c>
@@ -16656,11 +16375,8 @@
       <c r="BD94">
         <v>0</v>
       </c>
-      <c r="BE94">
-        <v>0</v>
-      </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>0.47</v>
       </c>
@@ -16829,11 +16545,8 @@
       <c r="BD95">
         <v>0</v>
       </c>
-      <c r="BE95">
-        <v>37.328435005920582</v>
-      </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>0.47499999999999998</v>
       </c>
@@ -17002,11 +16715,8 @@
       <c r="BD96">
         <v>0</v>
       </c>
-      <c r="BE96">
-        <v>0</v>
-      </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>0.48</v>
       </c>
@@ -17175,11 +16885,8 @@
       <c r="BD97">
         <v>0</v>
       </c>
-      <c r="BE97">
-        <v>36.739742744273187</v>
-      </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>0.48499999999999999</v>
       </c>
@@ -17348,11 +17055,8 @@
       <c r="BD98">
         <v>0</v>
       </c>
-      <c r="BE98">
-        <v>0</v>
-      </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>0.49</v>
       </c>
@@ -17521,11 +17225,8 @@
       <c r="BD99">
         <v>0</v>
       </c>
-      <c r="BE99">
-        <v>36.209751313347738</v>
-      </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>0.495</v>
       </c>
@@ -17694,11 +17395,8 @@
       <c r="BD100">
         <v>0</v>
       </c>
-      <c r="BE100">
-        <v>71.384504179866809</v>
-      </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>0.5</v>
       </c>
@@ -17867,11 +17565,8 @@
       <c r="BD101">
         <v>0</v>
       </c>
-      <c r="BE101">
-        <v>35.437826676917297</v>
-      </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>0.505</v>
       </c>
@@ -18040,11 +17735,8 @@
       <c r="BD102">
         <v>0</v>
       </c>
-      <c r="BE102">
-        <v>105.43478832333381</v>
-      </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>0.51</v>
       </c>
@@ -18213,11 +17905,8 @@
       <c r="BD103">
         <v>0</v>
       </c>
-      <c r="BE103">
-        <v>138.93305211356471</v>
-      </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>0.51500000000000001</v>
       </c>
@@ -18386,11 +18075,8 @@
       <c r="BD104">
         <v>0</v>
       </c>
-      <c r="BE104">
-        <v>172.28764062302449</v>
-      </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>0.52</v>
       </c>
@@ -18559,11 +18245,8 @@
       <c r="BD105">
         <v>0</v>
       </c>
-      <c r="BE105">
-        <v>68.220283284511154</v>
-      </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>0.52500000000000002</v>
       </c>
@@ -18732,11 +18415,8 @@
       <c r="BD106">
         <v>0</v>
       </c>
-      <c r="BE106">
-        <v>33.736833954978728</v>
-      </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>0.53</v>
       </c>
@@ -18905,11 +18585,8 @@
       <c r="BD107">
         <v>0</v>
       </c>
-      <c r="BE107">
-        <v>67.009136851547709</v>
-      </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>0.53500000000000003</v>
       </c>
@@ -19078,11 +18755,8 @@
       <c r="BD108">
         <v>0</v>
       </c>
-      <c r="BE108">
-        <v>99.255857240157994</v>
-      </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>0.54</v>
       </c>
@@ -19251,11 +18925,8 @@
       <c r="BD109">
         <v>0</v>
       </c>
-      <c r="BE109">
-        <v>98.356660578960771</v>
-      </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>0.54500000000000004</v>
       </c>
@@ -19424,11 +19095,8 @@
       <c r="BD110">
         <v>0</v>
       </c>
-      <c r="BE110">
-        <v>130.32867061789659</v>
-      </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -19597,11 +19265,8 @@
       <c r="BD111">
         <v>0</v>
       </c>
-      <c r="BE111">
-        <v>32.198796067674962</v>
-      </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>0.55500000000000005</v>
       </c>
@@ -19770,11 +19435,8 @@
       <c r="BD112">
         <v>0</v>
       </c>
-      <c r="BE112">
-        <v>95.913972924852942</v>
-      </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>0.56000000000000005</v>
       </c>
@@ -19943,11 +19605,8 @@
       <c r="BD113">
         <v>0</v>
       </c>
-      <c r="BE113">
-        <v>95.167358193388793</v>
-      </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>0.56500000000000006</v>
       </c>
@@ -20116,11 +19775,8 @@
       <c r="BD114">
         <v>0</v>
       </c>
-      <c r="BE114">
-        <v>31.558236207598771</v>
-      </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>0.57000000000000006</v>
       </c>
@@ -20289,11 +19945,8 @@
       <c r="BD115">
         <v>0</v>
       </c>
-      <c r="BE115">
-        <v>93.632884351720975</v>
-      </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>0.57500000000000007</v>
       </c>
@@ -20462,11 +20115,8 @@
       <c r="BD116">
         <v>0</v>
       </c>
-      <c r="BE116">
-        <v>123.64833159987759</v>
-      </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>0.57999999999999996</v>
       </c>
@@ -20635,11 +20285,8 @@
       <c r="BD117">
         <v>0</v>
       </c>
-      <c r="BE117">
-        <v>30.701057295933129</v>
-      </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>0.58499999999999996</v>
       </c>
@@ -20808,11 +20455,8 @@
       <c r="BD118">
         <v>0</v>
       </c>
-      <c r="BE118">
-        <v>60.736652947556387</v>
-      </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>0.59</v>
       </c>
@@ -20981,11 +20625,8 @@
       <c r="BD119">
         <v>0</v>
       </c>
-      <c r="BE119">
-        <v>0</v>
-      </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>0.59499999999999997</v>
       </c>
@@ -21154,11 +20795,8 @@
       <c r="BD120">
         <v>0</v>
       </c>
-      <c r="BE120">
-        <v>59.823254709571707</v>
-      </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>0.6</v>
       </c>
@@ -21327,11 +20965,8 @@
       <c r="BD121">
         <v>0</v>
       </c>
-      <c r="BE121">
-        <v>118.2086841550142</v>
-      </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>0.60499999999999998</v>
       </c>
@@ -21500,11 +21135,8 @@
       <c r="BD122">
         <v>0</v>
       </c>
-      <c r="BE122">
-        <v>58.804711999136281</v>
-      </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>0.61</v>
       </c>
@@ -21673,11 +21305,8 @@
       <c r="BD123">
         <v>0</v>
       </c>
-      <c r="BE123">
-        <v>87.303550481253225</v>
-      </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>0.61499999999999999</v>
       </c>
@@ -21846,11 +21475,8 @@
       <c r="BD124">
         <v>0</v>
       </c>
-      <c r="BE124">
-        <v>86.62727181455142</v>
-      </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>0.62</v>
       </c>
@@ -22019,11 +21645,8 @@
       <c r="BD125">
         <v>0</v>
       </c>
-      <c r="BE125">
-        <v>0</v>
-      </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>0.625</v>
       </c>
@@ -22192,11 +21815,8 @@
       <c r="BD126">
         <v>0</v>
       </c>
-      <c r="BE126">
-        <v>85.179003208964659</v>
-      </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>0.63</v>
       </c>
@@ -22365,11 +21985,8 @@
       <c r="BD127">
         <v>0</v>
       </c>
-      <c r="BE127">
-        <v>56.341781687185737</v>
-      </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>0.63500000000000001</v>
       </c>
@@ -22538,11 +22155,8 @@
       <c r="BD128">
         <v>0</v>
       </c>
-      <c r="BE128">
-        <v>27.835160749988798</v>
-      </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>0.64</v>
       </c>
@@ -22711,11 +22325,8 @@
       <c r="BD129">
         <v>0</v>
       </c>
-      <c r="BE129">
-        <v>55.353703510084117</v>
-      </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>0.64500000000000002</v>
       </c>
@@ -22884,11 +22495,8 @@
       <c r="BD130">
         <v>0</v>
       </c>
-      <c r="BE130">
-        <v>0</v>
-      </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>0.65</v>
       </c>
@@ -23057,11 +22665,8 @@
       <c r="BD131">
         <v>0</v>
       </c>
-      <c r="BE131">
-        <v>27.153766281389711</v>
-      </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>0.65500000000000003</v>
       </c>
@@ -23230,11 +22835,8 @@
       <c r="BD132">
         <v>0</v>
       </c>
-      <c r="BE132">
-        <v>81.210945427671078</v>
-      </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>0.66</v>
       </c>
@@ -23403,11 +23005,8 @@
       <c r="BD133">
         <v>0</v>
       </c>
-      <c r="BE133">
-        <v>0</v>
-      </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>0.66500000000000004</v>
       </c>
@@ -23576,11 +23175,8 @@
       <c r="BD134">
         <v>0</v>
       </c>
-      <c r="BE134">
-        <v>26.658766190646048</v>
-      </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>0.67</v>
       </c>
@@ -23749,11 +23345,8 @@
       <c r="BD135">
         <v>0</v>
       </c>
-      <c r="BE135">
-        <v>26.46983338531756</v>
-      </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>0.67500000000000004</v>
       </c>
@@ -23922,11 +23515,8 @@
       <c r="BD136">
         <v>0</v>
       </c>
-      <c r="BE136">
-        <v>78.504334633194844</v>
-      </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>0.68</v>
       </c>
@@ -24095,11 +23685,8 @@
       <c r="BD137">
         <v>0</v>
       </c>
-      <c r="BE137">
-        <v>51.881469035372717</v>
-      </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>0.68500000000000005</v>
       </c>
@@ -24268,11 +23855,8 @@
       <c r="BD138">
         <v>0</v>
       </c>
-      <c r="BE138">
-        <v>77.329408301223935</v>
-      </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>0.69000000000000006</v>
       </c>
@@ -24441,11 +24025,8 @@
       <c r="BD139">
         <v>0</v>
       </c>
-      <c r="BE139">
-        <v>51.031344575599171</v>
-      </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>0.69500000000000006</v>
       </c>
@@ -24614,11 +24195,8 @@
       <c r="BD140">
         <v>0</v>
       </c>
-      <c r="BE140">
-        <v>25.401474268479141</v>
-      </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>0.70000000000000007</v>
       </c>
@@ -24787,11 +24365,8 @@
       <c r="BD141">
         <v>0</v>
       </c>
-      <c r="BE141">
-        <v>50.375736982063927</v>
-      </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>0.70499999999999996</v>
       </c>
@@ -24960,11 +24535,8 @@
       <c r="BD142">
         <v>0</v>
       </c>
-      <c r="BE142">
-        <v>49.953500259672673</v>
-      </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>0.71</v>
       </c>
@@ -25133,11 +24705,8 @@
       <c r="BD143">
         <v>0</v>
       </c>
-      <c r="BE143">
-        <v>49.682995801483663</v>
-      </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>0.71499999999999997</v>
       </c>
@@ -25306,11 +24875,8 @@
       <c r="BD144">
         <v>0</v>
       </c>
-      <c r="BE144">
-        <v>73.758776588234696</v>
-      </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>0.72</v>
       </c>
@@ -25479,11 +25045,8 @@
       <c r="BD145">
         <v>0</v>
       </c>
-      <c r="BE145">
-        <v>24.322680723290642</v>
-      </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>0.72499999999999998</v>
       </c>
@@ -25652,11 +25215,8 @@
       <c r="BD146">
         <v>0</v>
       </c>
-      <c r="BE146">
-        <v>24.275213333892481</v>
-      </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>0.73</v>
       </c>
@@ -25825,11 +25385,8 @@
       <c r="BD147">
         <v>0</v>
       </c>
-      <c r="BE147">
-        <v>47.986233572713232</v>
-      </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>0.73499999999999999</v>
       </c>
@@ -25998,11 +25555,8 @@
       <c r="BD148">
         <v>0</v>
       </c>
-      <c r="BE148">
-        <v>23.853755772602121</v>
-      </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>0.74</v>
       </c>
@@ -26171,11 +25725,8 @@
       <c r="BD149">
         <v>0</v>
       </c>
-      <c r="BE149">
-        <v>0</v>
-      </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>0.745</v>
       </c>
@@ -26344,11 +25895,8 @@
       <c r="BD150">
         <v>0</v>
       </c>
-      <c r="BE150">
-        <v>70.463151538531847</v>
-      </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>0.75</v>
       </c>
@@ -26517,11 +26065,8 @@
       <c r="BD151">
         <v>0</v>
       </c>
-      <c r="BE151">
-        <v>69.923086684601699</v>
-      </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>0.755</v>
       </c>
@@ -26690,11 +26235,8 @@
       <c r="BD152">
         <v>0</v>
       </c>
-      <c r="BE152">
-        <v>23.15162314568553</v>
-      </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>0.76</v>
       </c>
@@ -26863,11 +26405,8 @@
       <c r="BD153">
         <v>0</v>
       </c>
-      <c r="BE153">
-        <v>0</v>
-      </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>0.76500000000000001</v>
       </c>
@@ -27036,11 +26575,8 @@
       <c r="BD154">
         <v>0</v>
       </c>
-      <c r="BE154">
-        <v>22.735400207811171</v>
-      </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>0.77</v>
       </c>
@@ -27209,11 +26745,8 @@
       <c r="BD155">
         <v>0</v>
       </c>
-      <c r="BE155">
-        <v>45.212297585620732</v>
-      </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>0.77500000000000002</v>
       </c>
@@ -27382,11 +26915,8 @@
       <c r="BD156">
         <v>0</v>
       </c>
-      <c r="BE156">
-        <v>0</v>
-      </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>0.78</v>
       </c>
@@ -27555,11 +27085,8 @@
       <c r="BD157">
         <v>0</v>
       </c>
-      <c r="BE157">
-        <v>22.329372249156471</v>
-      </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>0.78500000000000003</v>
       </c>
@@ -27728,11 +27255,8 @@
       <c r="BD158">
         <v>0</v>
       </c>
-      <c r="BE158">
-        <v>0</v>
-      </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>0.79</v>
       </c>
@@ -27901,11 +27425,8 @@
       <c r="BD159">
         <v>0</v>
       </c>
-      <c r="BE159">
-        <v>0</v>
-      </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>0.79500000000000004</v>
       </c>
@@ -28074,11 +27595,8 @@
       <c r="BD160">
         <v>0</v>
       </c>
-      <c r="BE160">
-        <v>0</v>
-      </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>0.8</v>
       </c>
@@ -28247,11 +27765,8 @@
       <c r="BD161">
         <v>0</v>
       </c>
-      <c r="BE161">
-        <v>0</v>
-      </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>0.80500000000000005</v>
       </c>
@@ -28420,11 +27935,8 @@
       <c r="BD162">
         <v>0</v>
       </c>
-      <c r="BE162">
-        <v>0</v>
-      </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>0.81</v>
       </c>
@@ -28593,11 +28105,8 @@
       <c r="BD163">
         <v>0</v>
       </c>
-      <c r="BE163">
-        <v>0</v>
-      </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>0.81500000000000006</v>
       </c>
@@ -28766,11 +28275,8 @@
       <c r="BD164">
         <v>0</v>
       </c>
-      <c r="BE164">
-        <v>0</v>
-      </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>0.82000000000000006</v>
       </c>
@@ -28939,11 +28445,8 @@
       <c r="BD165">
         <v>0</v>
       </c>
-      <c r="BE165">
-        <v>0</v>
-      </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>0.82500000000000007</v>
       </c>
@@ -29112,11 +28615,8 @@
       <c r="BD166">
         <v>0</v>
       </c>
-      <c r="BE166">
-        <v>0</v>
-      </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>0.83000000000000007</v>
       </c>
@@ -29285,11 +28785,8 @@
       <c r="BD167">
         <v>0</v>
       </c>
-      <c r="BE167">
-        <v>0</v>
-      </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>0.83499999999999996</v>
       </c>
@@ -29458,11 +28955,8 @@
       <c r="BD168">
         <v>0</v>
       </c>
-      <c r="BE168">
-        <v>0</v>
-      </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>0.84</v>
       </c>
@@ -29631,11 +29125,8 @@
       <c r="BD169">
         <v>0</v>
       </c>
-      <c r="BE169">
-        <v>0</v>
-      </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>0.84499999999999997</v>
       </c>
@@ -29804,11 +29295,8 @@
       <c r="BD170">
         <v>0</v>
       </c>
-      <c r="BE170">
-        <v>20.216454636386779</v>
-      </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>0.85</v>
       </c>
@@ -29977,11 +29465,8 @@
       <c r="BD171">
         <v>0</v>
       </c>
-      <c r="BE171">
-        <v>20.032726197231611</v>
-      </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>0.85499999999999998</v>
       </c>
@@ -30150,11 +29635,8 @@
       <c r="BD172">
         <v>0</v>
       </c>
-      <c r="BE172">
-        <v>0</v>
-      </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>0.86</v>
       </c>
@@ -30323,11 +29805,8 @@
       <c r="BD173">
         <v>0</v>
       </c>
-      <c r="BE173">
-        <v>39.576478496063523</v>
-      </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>0.86499999999999999</v>
       </c>
@@ -30496,11 +29975,8 @@
       <c r="BD174">
         <v>0</v>
       </c>
-      <c r="BE174">
-        <v>19.725410627621539</v>
-      </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>0.87</v>
       </c>
@@ -30669,11 +30145,8 @@
       <c r="BD175">
         <v>0</v>
       </c>
-      <c r="BE175">
-        <v>39.077280994453403</v>
-      </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>0.875</v>
       </c>
@@ -30842,11 +30315,8 @@
       <c r="BD176">
         <v>0</v>
       </c>
-      <c r="BE176">
-        <v>0</v>
-      </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>0.88</v>
       </c>
@@ -31015,11 +30485,8 @@
       <c r="BD177">
         <v>0</v>
       </c>
-      <c r="BE177">
-        <v>38.516713442305011</v>
-      </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>0.88500000000000001</v>
       </c>
@@ -31188,11 +30655,8 @@
       <c r="BD178">
         <v>0</v>
       </c>
-      <c r="BE178">
-        <v>76.360479019613649</v>
-      </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>0.89</v>
       </c>
@@ -31361,11 +30825,8 @@
       <c r="BD179">
         <v>0</v>
       </c>
-      <c r="BE179">
-        <v>113.8142487517176</v>
-      </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>0.89500000000000002</v>
       </c>
@@ -31534,11 +30995,8 @@
       <c r="BD180">
         <v>0</v>
       </c>
-      <c r="BE180">
-        <v>131.92442975173151</v>
-      </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>0.9</v>
       </c>
@@ -31707,11 +31165,8 @@
       <c r="BD181">
         <v>0</v>
       </c>
-      <c r="BE181">
-        <v>149.70454852620091</v>
-      </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>0.90500000000000003</v>
       </c>
@@ -31880,11 +31335,8 @@
       <c r="BD182">
         <v>0</v>
       </c>
-      <c r="BE182">
-        <v>148.6384235933611</v>
-      </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>0.91</v>
       </c>
@@ -32053,11 +31505,8 @@
       <c r="BD183">
         <v>0</v>
       </c>
-      <c r="BE183">
-        <v>147.5818312486945</v>
-      </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>0.91500000000000004</v>
       </c>
@@ -32226,11 +31675,8 @@
       <c r="BD184">
         <v>0.23104779708000001</v>
       </c>
-      <c r="BE184">
-        <v>146.534637700128</v>
-      </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>0.92</v>
       </c>
@@ -32399,11 +31845,8 @@
       <c r="BD185">
         <v>0</v>
       </c>
-      <c r="BE185">
-        <v>91.008110210100043</v>
-      </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>0.92500000000000004</v>
       </c>
@@ -32572,11 +32015,8 @@
       <c r="BD186">
         <v>0</v>
       </c>
-      <c r="BE186">
-        <v>54.151499308647473</v>
-      </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>0.93</v>
       </c>
@@ -32745,11 +32185,8 @@
       <c r="BD187">
         <v>0</v>
       </c>
-      <c r="BE187">
-        <v>35.830267370842797</v>
-      </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>0.93500000000000005</v>
       </c>
@@ -32918,11 +32355,8 @@
       <c r="BD188">
         <v>3.5596062814799998</v>
       </c>
-      <c r="BE188">
-        <v>17.812480035178769</v>
-      </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>0.94000000000000006</v>
       </c>
@@ -33091,11 +32525,8 @@
       <c r="BD189">
         <v>0</v>
       </c>
-      <c r="BE189">
-        <v>0</v>
-      </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>0.94500000000000006</v>
       </c>
@@ -33264,11 +32695,8 @@
       <c r="BD190">
         <v>0</v>
       </c>
-      <c r="BE190">
-        <v>0</v>
-      </c>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>0.95000000000000007</v>
       </c>
@@ -33437,11 +32865,8 @@
       <c r="BD191">
         <v>0</v>
       </c>
-      <c r="BE191">
-        <v>0</v>
-      </c>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>0.95500000000000007</v>
       </c>
@@ -33610,11 +33035,8 @@
       <c r="BD192">
         <v>0</v>
       </c>
-      <c r="BE192">
-        <v>0</v>
-      </c>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>0.96</v>
       </c>
@@ -33783,11 +33205,8 @@
       <c r="BD193">
         <v>0</v>
       </c>
-      <c r="BE193">
-        <v>0</v>
-      </c>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>0.96499999999999997</v>
       </c>
@@ -33956,11 +33375,8 @@
       <c r="BD194">
         <v>0</v>
       </c>
-      <c r="BE194">
-        <v>0</v>
-      </c>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>0.97</v>
       </c>
@@ -34129,11 +33545,8 @@
       <c r="BD195">
         <v>0</v>
       </c>
-      <c r="BE195">
-        <v>0</v>
-      </c>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>0.97499999999999998</v>
       </c>
@@ -34302,11 +33715,8 @@
       <c r="BD196">
         <v>0</v>
       </c>
-      <c r="BE196">
-        <v>0</v>
-      </c>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>0.98</v>
       </c>
@@ -34475,11 +33885,8 @@
       <c r="BD197">
         <v>0</v>
       </c>
-      <c r="BE197">
-        <v>0</v>
-      </c>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>0.98499999999999999</v>
       </c>
@@ -34648,11 +34055,8 @@
       <c r="BD198">
         <v>0</v>
       </c>
-      <c r="BE198">
-        <v>0</v>
-      </c>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>0.99</v>
       </c>
@@ -34821,11 +34225,8 @@
       <c r="BD199">
         <v>0</v>
       </c>
-      <c r="BE199">
-        <v>0</v>
-      </c>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>0.995</v>
       </c>
@@ -34994,11 +34395,8 @@
       <c r="BD200">
         <v>0</v>
       </c>
-      <c r="BE200">
-        <v>0</v>
-      </c>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>1</v>
       </c>
@@ -35165,9 +34563,6 @@
         <v>0</v>
       </c>
       <c r="BD201">
-        <v>0</v>
-      </c>
-      <c r="BE201">
         <v>0</v>
       </c>
     </row>
